--- a/Excel/本地化数据_交互.xlsx
+++ b/Excel/本地化数据_交互.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\WulinSH\Wulin_Data\StreamingAssets\ModEditor\ModEditor\Assets\_Mods\KoreanTranslation\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456DFD25-144B-4E9F-923D-16C65C4EBD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="3915" yWindow="1830" windowWidth="32040" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
@@ -13,36 +19,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LocData!$A$1:$E$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A73" authorId="0">
+    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -50,7 +42,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 在自动生成表里加了</t>
@@ -62,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="962">
   <si>
     <t>备注</t>
   </si>
@@ -370,18 +361,12 @@
     <t>Favorite Item: {0}.</t>
   </si>
   <si>
-    <t>NoTranslate</t>
-  </si>
-  <si>
     <t>Gifting_FondItemSeparator</t>
   </si>
   <si>
     <t>、</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>Gifting_FondItemNone</t>
   </si>
   <si>
@@ -685,7 +670,7 @@
     <t>與{0}關係已達到{1}，可享受{2}折優惠</t>
   </si>
   <si>
-    <t>Relations with {0} have reached {1}, you can enjoy a {2}% OFF discount everytime shopping here.</t>
+    <t>Relations with {0} have reached {1}, you can enjoy a {2}% discount</t>
   </si>
   <si>
     <t>FactionTrading_TreasurysCoinNoyEnough</t>
@@ -1218,6 +1203,7 @@
         <sz val="9"/>
         <color rgb="FF333840"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>看在你我有缘的份上，我就传授给你吧。</t>
@@ -1607,7 +1593,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>这、这是……真走运！</t>
     </r>
@@ -1616,7 +1601,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1625,7 +1610,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>哇！中大奖了！|真的有好东西啊！|不会错，这个光泽是——</t>
     </r>
@@ -1645,7 +1629,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>没有工具要怎么采集啊……</t>
     </r>
@@ -1654,7 +1637,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1663,7 +1646,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>我可没有空手采集的本事啊！</t>
     </r>
@@ -1672,7 +1654,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1681,7 +1663,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>有工具才能采集啊。|徒手采集也太强人所难了吧。|没有工具我真的做不到啊！|就算我本事再高也要有工具啊。</t>
     </r>
@@ -1701,7 +1682,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>累死了……让我休息一下吧。</t>
     </r>
@@ -1710,7 +1690,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1719,7 +1699,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>不行了，工具都拿不稳了……</t>
     </r>
@@ -1728,7 +1707,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1737,7 +1716,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>让我休息一会吧……</t>
     </r>
@@ -1746,7 +1724,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1755,7 +1733,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>人是需要休息的！|</t>
     </r>
@@ -1862,7 +1839,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{PlayerName}</t>
     </r>
@@ -1871,7 +1848,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>！今天败在你手下的耻辱</t>
     </r>
@@ -1880,7 +1856,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{NpcJobTalk:</t>
     </r>
@@ -1889,7 +1865,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>自我称呼</t>
     </r>
@@ -1898,7 +1873,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>}</t>
     </r>
@@ -1907,7 +1882,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>记住了，咱们走着瞧！</t>
     </r>
@@ -1916,7 +1890,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1926,7 +1900,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>下次比试定会叫</t>
     </r>
@@ -1935,7 +1908,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{NpcJobTalk:</t>
     </r>
@@ -1944,7 +1917,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>第二人称脏话</t>
     </r>
@@ -1953,7 +1925,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>}</t>
     </r>
@@ -1962,7 +1934,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>见识</t>
     </r>
@@ -1971,7 +1942,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>{NpcJobTalk:</t>
     </r>
@@ -1980,7 +1951,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>自我称呼</t>
     </r>
@@ -1989,7 +1959,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>}</t>
     </r>
@@ -1998,7 +1968,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>真正厉害。</t>
     </r>
@@ -2700,215 +2669,650 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>이 인물은 점혈할 수 없습니다</t>
+  </si>
+  <si>
+    <t>이 인물은 훔칠 수 없습니다</t>
+  </si>
+  <si>
+    <t>이 인물은 하독할 수 없습니다</t>
+  </si>
+  <si>
+    <t>이 인물은 습격할 수 없습니다</t>
+  </si>
+  <si>
+    <t>살인이다!!살인이다!!</t>
+  </si>
+  <si>
+    <t>감히 날 기습해?</t>
+  </si>
+  <si>
+    <t>무슨 수상한 걸 먹이는 거야!|맙소사, 누가 독을 넣었어!</t>
+  </si>
+  <si>
+    <t>너 정말 배짱이 크구나!|누가 감히 나에게 독을 먹이느냐!</t>
+  </si>
+  <si>
+    <t>뛰어!</t>
+  </si>
+  <si>
+    <t>흠, 그게 다야.|아주 쉬워!</t>
+  </si>
+  <si>
+    <t>난 안 때렸어... 믿어줘…</t>
+  </si>
+  <si>
+    <t>이 사람 독이 너무 깊어.</t>
+  </si>
+  <si>
+    <t>독이 다 떨어졌습니다</t>
+  </si>
+  <si>
+    <t>하독에 성공했습니다</t>
+  </si>
+  <si>
+    <t>체력이 없습니다|체력이 없어서 움직일 수 없습니다|힘들어요 좀 쉬면 안 돼요?|체력이 떨어졌습니다</t>
+  </si>
+  <si>
+    <t>아무것도 없다니, 정말 가난뱅이로군!</t>
+  </si>
+  <si>
+    <t>당신은 본문의 제자가 아니므로 {NpcJobTalk:自我称呼}에서 아무것도 얻을 수 없습니다.</t>
+  </si>
+  <si>
+    <t>{Char1Name} 팀 참여 동의</t>
+  </si>
+  <si>
+    <t>다시 생각해 보다</t>
+  </si>
+  <si>
+    <t>현재관계：{0}（{1}）</t>
+  </si>
+  <si>
+    <t>선호물품：{0}</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>서로 좋은 관계를 유지하고 있으며 도움을 받을 수 있습니다</t>
+  </si>
+  <si>
+    <t>잘 지내지 않는 것 같네요. 상대방이 대화를 원하지 않아요</t>
+  </si>
+  <si>
+    <t>잘 지내지 못하고 있으며, 이로 인해 부정적인 영향을 받고 있을 수 있습니다</t>
+  </si>
+  <si>
+    <t>그들은 모든 것을 동원해 당신을 공격할 것입니다</t>
+  </si>
+  <si>
+    <t>당신과 아무 접촉도 하기 싫고 멀어질 뿐이에요</t>
+  </si>
+  <si>
+    <t>상점에서 물품을 &lt;#00ff00&gt;구매&lt;/color&gt;할 수 있습니다</t>
+  </si>
+  <si>
+    <t>관심있는 물품을 &lt;#00ff00&gt;판매&lt;/color&gt;할 수 있습니다</t>
+  </si>
+  <si>
+    <t>당신과 {Char1Name}의 소지품 &lt;#00ff00&gt;교환&lt;/color&gt; 가능</t>
+  </si>
+  <si>
+    <t>&lt;#00ff00&gt;청교&lt;/color&gt;사항을 충족하면 {HL0}을 획득 가능</t>
+  </si>
+  <si>
+    <t>{Char1Name} 당신의 전투를 조력</t>
+  </si>
+  <si>
+    <t>현재 관계를&lt;#{0}&gt;{1}&lt;/color&gt;까지 향상 가능</t>
+  </si>
+  <si>
+    <t>관계가 깊어，{Char1Name}을 일행으로 &lt;#00ff00&gt;초대&lt;/color&gt;가능</t>
+  </si>
+  <si>
+    <t>&lt;#ff8800&gt;{0}&lt;/color&gt;이벤트 완료 후 관계 계속 상승 가능</t>
+  </si>
+  <si>
+    <t>친밀한 관계가 되면 &lt;#00ff00&gt;{0}{1}&lt;/color&gt; 습득 가능</t>
+  </si>
+  <si>
+    <t>더 이상 선물을 줄 수 없습니다</t>
+  </si>
+  <si>
+    <t>{0} (명성 {1}등급)</t>
+  </si>
+  <si>
+    <t>당신은&lt;#ffff00&gt;{0}&lt;/color&gt;와 명성 차이가 크며，그는 당신의 어떤 선물도 받지 않을 것입니다</t>
+  </si>
+  <si>
+    <t>당신은&lt;#ffff00&gt;{0}&lt;/color&gt;와 명성 차이가 크며，그녀는 당신의 어떤 선물도 받지 않을 것입니다</t>
+  </si>
+  <si>
+    <t>{1} 보유금： {0}</t>
+  </si>
+  <si>
+    <t>{0}과의 관계가 {1}에 도달했습니다</t>
+  </si>
+  <si>
+    <t>{0}과의 관계가 {1}에 도달했습니다，{2}% 할인을 받을 수 있습니다</t>
+  </si>
+  <si>
+    <t>그 물건으로 뭐 할 거야?</t>
+  </si>
+  <si>
+    <t>동물의 언어를 이해하지 못해서 동물과 소통할 수 없습니다</t>
+  </si>
+  <si>
+    <t>기존에 키우던 반려동물을 방생하지 않으면 새 반려동물을 입양할 수 없습니다</t>
+  </si>
+  <si>
+    <t>관계가 {0}에 도달해야 입양할 수 있습니다</t>
+  </si>
+  <si>
+    <t>체력이 너무 떨어져서 쉬는 것이 좋겠습니다|세상에 뛰어드는 것은 마음뿐만 아니라 몸도 피곤하다는 것을 알게되었습니다|요즘 너무 피곤합니다</t>
+  </si>
+  <si>
+    <t>앞으로 {NpcJobTalk:自我称呼}이 도움이 필요하면 {0}에서 {NpcJobTalk:自我称呼}을 찾아줘. 강호는 갈 길이 멀니 우리 다음에 또 만나자</t>
+  </si>
+  <si>
+    <t>{0}을 (를) 일행에서 내보내시겠습니까?</t>
+  </si>
+  <si>
+    <t>{0}로 돌아가서 나를 기다려. 놓치면 내가 찾으러 갈게</t>
+  </si>
+  <si>
+    <t>당신의 &lt;size=200%&gt;&lt;b&gt;{0}&lt;/b&gt;&lt;/size&gt;가 너무 낮습니다</t>
+  </si>
+  <si>
+    <t>당신의 &lt;size=200%&gt;&lt;b&gt;{0}&lt;/b&gt;&lt;/size&gt;가 너무 높습니다</t>
+  </si>
+  <si>
+    <t>너무 심하다!</t>
+  </si>
+  <si>
+    <t>어차피 피할 수 없으니 네가 알아서 해라</t>
+  </si>
+  <si>
+    <t>%c%{0} 필요</t>
+  </si>
+  <si>
+    <t>%c%을(를) 열려면 {0}이(가) 필요하다</t>
+  </si>
+  <si>
+    <t>열면 {0}이 소모됩니다!
+계속 진행하시겠습니까?</t>
+  </si>
+  <si>
+    <t>해제 성공</t>
+  </si>
+  <si>
+    <t>%c%{0}이(가) {1}에 도달해야 합니다</t>
+  </si>
+  <si>
+    <t>%c% 은(는) {0}{1} 등급이 필요하다</t>
+  </si>
+  <si>
+    <t>죽은 원수</t>
+  </si>
+  <si>
+    <t>절치</t>
+  </si>
+  <si>
+    <t>증오</t>
+  </si>
+  <si>
+    <t>혐오감</t>
+  </si>
+  <si>
+    <t>막시</t>
+  </si>
+  <si>
+    <t>안면</t>
+  </si>
+  <si>
+    <t>우호</t>
+  </si>
+  <si>
+    <t>친밀</t>
+  </si>
+  <si>
+    <t>지기</t>
+  </si>
+  <si>
+    <t>막역</t>
+  </si>
+  <si>
+    <t>생사</t>
+  </si>
+  <si>
+    <t>낯섬</t>
+  </si>
+  <si>
+    <t>%c% 먹일 항목을 선택하지 않았습니다</t>
+  </si>
+  <si>
+    <t>%c% 이미 너무 배불리 먹었으니 더 이상 먹일 필요가 없습니다</t>
+  </si>
+  <si>
+    <t>나는 너와 동문동파가 아니니 너에게 전수할 수 없다</t>
+  </si>
+  <si>
+    <t>{NpcJobTalk:自我称呼} 에는 {0} 이 있습니다 {1}</t>
+  </si>
+  <si>
+    <t>{0}으로 교환해야 합니다</t>
+  </si>
+  <si>
+    <t>{0}이 필요합니다</t>
+  </si>
+  <si>
+    <t>더 이상 가르쳐줄 게 없어</t>
+  </si>
+  <si>
+    <t>정말 {NpcJobTalk:自我称呼}와 함께 계속 배우시겠습니까?</t>
+  </si>
+  <si>
+    <t>{1}을 주려면 {0}이 필요합니다</t>
+  </si>
+  <si>
+    <t>{NpcJobTalk:自我称呼}는 {NpcJobTalk:第二人称}에게 더 이상 가르칠 것이 없습니다</t>
+  </si>
+  <si>
+    <t>{1}을 얻기 위해 {0}을 소비하시겠습니까?</t>
+  </si>
+  <si>
+    <t>{NpcJobTalk:第二人称}이(가) 아직 준비되지 않은 것 같습니다</t>
+  </si>
+  <si>
+    <t>너와 내가 인연이 있으니 내가 너에게 전수해 줄게</t>
+  </si>
+  <si>
+    <t>이제 {PlayerSurName}{NpcJobTalk:第二人称敬语}와(과) {NpcJobTalk:自我称呼}은(는) 이미 &lt;color=#c44b0e&gt;생사지교&lt;/color&gt;이므로,
+{NpcJobTalk:自我称呼} 은(는) &lt;color=#c44b0e&gt;{0}&lt;/color&gt;을(를) {PlayerSurName}{NpcJobTalk:第二人称敬语}에게 전수해주겠습니다</t>
+  </si>
+  <si>
+    <t>{faction}의 위협 제거 ({num})</t>
+  </si>
+  <si>
+    <t>{rarity}{type}({num}) 수집</t>
+  </si>
+  <si>
+    <t>{namenum} 수집</t>
+  </si>
+  <si>
+    <t>범죄자{name} 검거</t>
+  </si>
+  <si>
+    <t>{map}에서 {name} 처치</t>
+  </si>
+  <si>
+    <t>{name} 처치</t>
+  </si>
+  <si>
+    <t>{name}({num}) 처치</t>
+  </si>
+  <si>
+    <t>신용+{0}、{faction} 관계+{1}</t>
+  </si>
+  <si>
+    <t>{0}후 새로 고침</t>
+  </si>
+  <si>
+    <t>완료함</t>
+  </si>
+  <si>
+    <t>포기함</t>
+  </si>
+  <si>
+    <t>포기</t>
+  </si>
+  <si>
+    <t>제공</t>
+  </si>
+  <si>
+    <t>접수</t>
+  </si>
+  <si>
+    <t>무제한</t>
+  </si>
+  <si>
+    <t>기한 초과</t>
+  </si>
+  <si>
+    <t>교부 구역이 가득 찼습니다. 수량을 합리적으로 분배하십시오</t>
+  </si>
+  <si>
+    <t>%c% 현상금 임무 수령 수량이 이미 상한에 도달하였습니다</t>
+  </si>
+  <si>
+    <t>%c% 현상금 임무를 받았습니다</t>
+  </si>
+  <si>
+    <t>작업을 포기하면 신용이&lt;color=#FF0000&gt;{0}&lt;/color&gt;점，{1} 관계가&lt;color=#FF0000&gt;{2}&lt;/color&gt;점 감소한다</t>
+  </si>
+  <si>
+    <t>&lt;color=#2D8776&gt;의뢰 임무가 완료되었으니 {0}(으)로 돌아가십시오&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>현상금 공고의 수배 목표를 시간 내에 잡지 못했으니 포기해야 할 것 같다!</t>
+  </si>
+  <si>
+    <t>시간 내에 목표 거점을 소탕하지 못했으니, 포기할 수밖에 없을 것 같군!</t>
+  </si>
+  <si>
+    <t>여기는 이미 아무것도 없다</t>
+  </si>
+  <si>
+    <t>&lt;#c44b0e&gt;{0}&lt;/color&gt;에 가입하여 이 곳에서 작업을 받을 수 있습니다</t>
+  </si>
+  <si>
+    <t>{0}이(가) 없어 임무를 수락할 수 없습니다</t>
+  </si>
+  <si>
+    <t>&lt;#c44b0e&gt;{0}&lt;/color&gt;이(가) 없어서 채집할 수 없습니다|&lt;#c44b0e&gt;{0}&lt;/color&gt;이(가) 없으면 안 됩니다|&lt;#c44b0e&gt;{0}&lt;/color&gt;이(가) 있어야 채집할 수 있어요|먼저 &lt;#c44b0e&gt;{0}&lt;/color&gt;을(를) 획득하세요</t>
+  </si>
+  <si>
+    <t>아이고!공구가 고장 나서 정말 재수 없어요|우와, 공구가 고장 났네!|아!!도구가 고장 났어!</t>
+  </si>
+  <si>
+    <t>정말 뜻밖이네!</t>
+  </si>
+  <si>
+    <t>이거..정말 운이 좋군!|와!대박이야!|정말 좋은 게 있구나!|이 광택은..</t>
+  </si>
+  <si>
+    <t>도구가 없으면 어떻게 채집해...|나는 맨손으로 채집할 능력이 없어!|도구가 있어야 채집할 수 있지|맨손으로 채집하기엔 너무 무리야|도구가 없으면 할 수 없어!|내가 아무리 능력이 높아도 도구가 있어야지</t>
+  </si>
+  <si>
+    <t>피곤해 죽겠어... 좀 쉬게 해줘.|안 돼, 도구도 제대로 못 잡겠어...... |좀 쉬게 해줘...... |사람은 쉬어야 해!|</t>
+  </si>
+  <si>
+    <t>여기는 이미 따낼 것이 없습니다|채집하려고 해도 물건이 없네요|이미 이곳의 모든 물건을 다 채굴했습니다|여기 정말 아무것도 없어|됐어, 여기는 이미 아무것도 없어</t>
+  </si>
+  <si>
+    <t>곡괭이</t>
+  </si>
+  <si>
+    <t>도끼</t>
+  </si>
+  <si>
+    <t>낚시대</t>
+  </si>
+  <si>
+    <t>낫</t>
+  </si>
+  <si>
+    <t>포충망</t>
+  </si>
+  <si>
+    <t>{PlayerSurName} 형님 예상대로 정말 실력이 뛰어나시네요, 정말 존경합니다.
+다음 대회가 기대되네요, 그때 누가 더 잘하는지 보죠</t>
+  </si>
+  <si>
+    <t>{PlayerName}! 오늘 너에게 졌던 굴욕을 기억할게, 두고 보자!
+다음에는 {NpcJobTalk:第二人称脏话}가 얼마나 강력한지 보여줄게</t>
+  </si>
+  <si>
+    <t>이번 시합에서 우승자는 {1}이고 준우승자는 {2}, 3위는 {3}입니다. {0}이(가) 이미 끝났으니 모두 돌아가셔도 됩니다</t>
+  </si>
+  <si>
+    <t>이번 시합에서 우승자는 {1}이고 준우승자는 {2}입니다. {0}이(가) 이미 끝났으니 모두 돌아가셔도 됩니다</t>
+  </si>
+  <si>
+    <t>이 시합에 감히 아무도 참가하지 못할 줄은 생각지도 못했다.
+쉽게 우승을 차지하게 할 수는 없으니, 네가 지금 얼마나 능력이 있는지 보여봐</t>
+  </si>
+  <si>
+    <t>&lt;#ff8888&gt;{0}&lt;/color&gt;의 물건을 무단으로 가져가면 &lt;#ffff00&gt;예절&lt;/color&gt;이 감소합니다,
+계속하시겠습니까?</t>
+  </si>
+  <si>
+    <t>대화</t>
+  </si>
+  <si>
+    <t>초대</t>
+  </si>
+  <si>
+    <t>&lt;#62FB9C&gt;초대</t>
+  </si>
+  <si>
+    <t>&lt;#62FB9C&gt;장문</t>
+  </si>
+  <si>
+    <t>교환</t>
+  </si>
+  <si>
+    <t>구매</t>
+  </si>
+  <si>
+    <t>판매</t>
+  </si>
+  <si>
+    <t>선물</t>
+  </si>
+  <si>
+    <t>청교</t>
+  </si>
+  <si>
+    <t>학습</t>
+  </si>
+  <si>
+    <t>내쫓기</t>
+  </si>
+  <si>
+    <t>정보</t>
+  </si>
+  <si>
+    <t>멈춤</t>
+  </si>
+  <si>
+    <t>방양</t>
+  </si>
+  <si>
+    <t>치료</t>
+  </si>
+  <si>
+    <t>먹이기</t>
+  </si>
+  <si>
+    <t>입양</t>
+  </si>
+  <si>
+    <t>방생</t>
+  </si>
+  <si>
+    <t>해제</t>
+  </si>
+  <si>
+    <t>열기</t>
+  </si>
+  <si>
+    <t>감정</t>
+  </si>
+  <si>
+    <t>&lt;#62FB9C&gt;출발</t>
+  </si>
+  <si>
+    <t>출발</t>
+  </si>
+  <si>
+    <t>소협 보십시오，제가 여기서 {0}을 감정할 수 있습니다 작은 돈을 써서 큰 도움을 드리겠습니다!</t>
+  </si>
+  <si>
+    <t>하지만 우리 관계를 보면... 더 나아가는 게 좋겠어</t>
+  </si>
+  <si>
+    <t>저리가!|일이 없으면 방해하지 마라|뭐야? 감정도 안 할 거면서 왜 날 찾아?</t>
+  </si>
+  <si>
+    <t>이용해 주셔서 감사합니다!|다음에 또 오세요!|모두 좋은 물건들입니다!|만족하셨습니까?</t>
+  </si>
+  <si>
+    <t>반려동물의 이름을 지어주세요</t>
+  </si>
+  <si>
+    <t>얘 이름 뭐로 할까?</t>
+  </si>
+  <si>
+    <t>좋아!너는 앞으로&lt;#c44b0e&gt;{0}&lt;/color&gt;라고 불러라!</t>
+  </si>
+  <si>
+    <t>이 이름은 좋지 않아. 다른 이름을 찾아볼게</t>
+  </si>
+  <si>
+    <t>무고한 사람을 다치게 하고 싶지 않으니, 빨리 도망치는 게 좋을 거야!</t>
+  </si>
+  <si>
+    <t>동문에게 상처를 주었으니 내 체면을 구겼다고 탓하지 마라</t>
+  </si>
+  <si>
+    <t>다시는 내 동문에게 손대지 마라</t>
+  </si>
+  <si>
+    <t>더 이상 내 동료와 싸우도록 강요하지 마라</t>
+  </si>
+  <si>
+    <t>너와 나는 잘 알지 못하기 때문에, 너에게 전수할 것이 없다</t>
+  </si>
+  <si>
+    <t>이제 우리는 지기이다.
+{1}의 {0}점을 당신에게 전수할 수 있습니다.；
+{2}문, 체력 {3}이 필요합니다. {4}</t>
+  </si>
+  <si>
+    <t>나와 계속 배우고 싶니?</t>
+  </si>
+  <si>
+    <t>우리 관계는 서로를 더 이상 믿지 못하게 됐다. 나는 {0}으로 돌아갈 것이니, 강호는 멀고 인연이 있으면 다시 만날 것이다</t>
+  </si>
+  <si>
+    <t>누구든 태울 수 있어, 너만 안 돼!</t>
+  </si>
+  <si>
+    <t>손쉽게!|손바닥 뒤집듯~|너무 쉽군!|헤헤, 또 하얘졌네.|쥐도 새도 모르게~|이 아이는 내 것이다!</t>
+  </si>
+  <si>
+    <t>&lt;#00ff00&gt;비무&lt;/color&gt;에서 그에게 도전하면 자신의 실전 경험을 증가시킬 수 있습니다</t>
+  </si>
+  <si>
+    <t>아이고, 내 팔자가 참 고달프구나|에이, 이 나날을 어떻게 보내나|왜 재수 없는 건 항상 나야?|이런 날 언제까지나|사람이 하는 일이 왜 이렇게 실패하는가|이런 강호는 너무 피곤하다|내가 얼마나 더 버틸 수 있을지 몰라 ~ 에이 ~</t>
+  </si>
+  <si>
+    <t>범인을 소탕했으니 보상을 받으러 가세요~</t>
+  </si>
+  <si>
+    <t>범인을 이미 제압하였으니 보상을 받으러 가셔도 됩니다~</t>
+  </si>
+  <si>
+    <t>비무</t>
+  </si>
+  <si>
+    <t>장비</t>
+  </si>
+  <si>
+    <t>네가 무자비하니 내가 불의한 것을 탓하지 마라!</t>
+  </si>
+  <si>
+    <t>정말 싫어!|저리 가!|불량배야!|여기 왜 남자가 있지?|아... 이게…</t>
+  </si>
+  <si>
+    <t>아직 준비가 안 됐나 봐요.</t>
+  </si>
+  <si>
+    <t>잠시 후에 다시 이야기합시다.</t>
+  </si>
+  <si>
+    <t>【{0}】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【{0}】에 가서 기다릴게요.</t>
+  </si>
+  <si>
+    <t>비무 시작!&lt;color=#097a76&gt;(25체력, 2각)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>만약 당신이 승리한다면 {2} 강호 경험, {3} 명성 경험을 획득할 수 있습니다. 비무를 하겠습니까?</t>
+  </si>
+  <si>
+    <t>우리의 사이가 아직 {0}이(가) 아니라서 이 일은 우선 그만두는 것이 좋겠군.</t>
+  </si>
+  <si>
+    <t>&lt;#c44b0e&gt;{0}&lt;/color&gt;을(를) 어디로 보내시겠습니까?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333840"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2917,7 +3321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2927,188 +3331,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3160,367 +3384,77 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3535,6 +3469,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3792,19 +3729,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="36.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
@@ -3812,18 +3749,18 @@
     <col min="4" max="4" width="63.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="48.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="50.625" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="19.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.875" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3843,7 +3780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
@@ -3861,7 +3798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -3879,7 +3816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
@@ -3894,10 +3831,13 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>774</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -3912,10 +3852,13 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>775</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -3930,10 +3873,13 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -3948,10 +3894,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
@@ -3966,10 +3915,13 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
+        <v>778</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
@@ -3984,10 +3936,13 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>779</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -4002,10 +3957,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
+        <v>780</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
@@ -4020,10 +3978,13 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
+        <v>781</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -4038,10 +3999,13 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>13</v>
@@ -4056,10 +4020,13 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
+        <v>783</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>13</v>
@@ -4074,10 +4041,13 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
+        <v>784</v>
+      </c>
+      <c r="G14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>13</v>
@@ -4092,10 +4062,13 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
+        <v>785</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>13</v>
@@ -4110,10 +4083,13 @@
         <v>61</v>
       </c>
       <c r="F16" t="s">
+        <v>786</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
@@ -4128,10 +4104,13 @@
         <v>64</v>
       </c>
       <c r="F17" t="s">
+        <v>787</v>
+      </c>
+      <c r="G17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -4146,10 +4125,13 @@
         <v>68</v>
       </c>
       <c r="F18" t="s">
+        <v>788</v>
+      </c>
+      <c r="G18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>13</v>
@@ -4164,10 +4146,13 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
+        <v>788</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>13</v>
@@ -4182,10 +4167,13 @@
         <v>68</v>
       </c>
       <c r="F20" t="s">
+        <v>788</v>
+      </c>
+      <c r="G20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
         <v>13</v>
@@ -4200,10 +4188,13 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
+        <v>788</v>
+      </c>
+      <c r="G21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>13</v>
@@ -4218,10 +4209,13 @@
         <v>75</v>
       </c>
       <c r="F22" t="s">
+        <v>945</v>
+      </c>
+      <c r="G22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
@@ -4238,10 +4232,13 @@
         <v>80</v>
       </c>
       <c r="F23" t="s">
+        <v>789</v>
+      </c>
+      <c r="G23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>13</v>
@@ -4256,10 +4253,13 @@
         <v>84</v>
       </c>
       <c r="F24" t="s">
+        <v>790</v>
+      </c>
+      <c r="G24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
         <v>13</v>
@@ -4274,10 +4274,13 @@
         <v>88</v>
       </c>
       <c r="F25" t="s">
+        <v>791</v>
+      </c>
+      <c r="G25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="9"/>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -4292,10 +4295,13 @@
         <v>92</v>
       </c>
       <c r="F26" t="s">
+        <v>792</v>
+      </c>
+      <c r="G26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
         <v>13</v>
@@ -4310,10 +4316,13 @@
         <v>96</v>
       </c>
       <c r="F27" t="s">
+        <v>793</v>
+      </c>
+      <c r="G27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="9"/>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -4328,3275 +4337,3820 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
+        <v>794</v>
+      </c>
+      <c r="G28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>102</v>
-      </c>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="E29" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G30" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="9"/>
       <c r="B31" s="9">
         <v>0</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" t="s">
+        <v>796</v>
+      </c>
+      <c r="G31" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="9"/>
       <c r="B32" s="9">
         <v>0</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="F32" t="s">
+        <v>797</v>
+      </c>
+      <c r="G32" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="9">
         <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="F33" t="s">
+        <v>798</v>
+      </c>
+      <c r="G33" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="9">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="F34" t="s">
+        <v>799</v>
+      </c>
+      <c r="G34" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="9"/>
       <c r="B35" s="9">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="F35" t="s">
+        <v>800</v>
+      </c>
+      <c r="G35" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="10" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F35" t="s">
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="9">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="F36" t="s">
+        <v>801</v>
+      </c>
+      <c r="G36" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F36" t="s">
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="9">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="E37" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="F37" t="s">
+        <v>802</v>
+      </c>
+      <c r="G37" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="9"/>
       <c r="B38" s="9">
         <v>0</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="F38" t="s">
+        <v>803</v>
+      </c>
+      <c r="G38" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="9">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="F39" t="s">
+        <v>804</v>
+      </c>
+      <c r="G39" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="9"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="F40" t="s">
+        <v>805</v>
+      </c>
+      <c r="G40" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="9">
         <v>0</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="F41" t="s">
+        <v>946</v>
+      </c>
+      <c r="G41" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="F42" t="s">
+        <v>806</v>
+      </c>
+      <c r="G42" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="9"/>
       <c r="B43" s="9">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="F43" t="s">
+        <v>807</v>
+      </c>
+      <c r="G43" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="F44" t="s">
+        <v>808</v>
+      </c>
+      <c r="G44" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="9"/>
       <c r="B45" s="9">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="F45" t="s">
+        <v>809</v>
+      </c>
+      <c r="G45" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="F46" t="s">
+        <v>810</v>
+      </c>
+      <c r="G46" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="9"/>
       <c r="B47" s="9">
         <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="F47" t="s">
+        <v>811</v>
+      </c>
+      <c r="G47" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="9"/>
       <c r="B48" s="9">
         <v>0</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="F48" t="s">
+        <v>812</v>
+      </c>
+      <c r="G48" t="s">
         <v>181</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="9">
         <v>0</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="F49" t="s">
+        <v>813</v>
+      </c>
+      <c r="G49" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="10" t="s">
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F49" t="s">
+      <c r="B50" s="9">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="9">
-        <v>0</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="E50" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="9"/>
       <c r="B51" s="9">
         <v>0</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="G52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="9">
         <v>0</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="G53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" t="s">
+        <v>814</v>
+      </c>
+      <c r="G54" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="9">
         <v>0</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="F55" t="s">
+        <v>815</v>
+      </c>
+      <c r="G55" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="10" t="s">
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9">
+        <v>0</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F55" t="s">
+      <c r="D56" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="9">
-        <v>0</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="F56" t="s">
+        <v>816</v>
+      </c>
+      <c r="G56" t="s">
         <v>205</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="9"/>
       <c r="B57" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="F57" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="9">
         <v>0</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="F58" t="s">
+        <v>817</v>
+      </c>
+      <c r="G58" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="9">
         <v>0</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" t="s">
+        <v>817</v>
+      </c>
+      <c r="G59" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="9"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" t="s">
+        <v>817</v>
+      </c>
+      <c r="G60" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="9"/>
       <c r="B61" s="9">
         <v>0</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="F61" t="s">
+        <v>818</v>
+      </c>
+      <c r="G61" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="9"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="F62" t="s">
+        <v>819</v>
+      </c>
+      <c r="G62" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="9"/>
       <c r="B63" s="9">
         <v>0</v>
       </c>
       <c r="C63" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="F63" t="s">
+        <v>820</v>
+      </c>
+      <c r="G63" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="9"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
       <c r="C64" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="F64" t="s">
+        <v>821</v>
+      </c>
+      <c r="G64" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="9"/>
       <c r="B65" s="9">
         <v>0</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="F65" t="s">
+        <v>947</v>
+      </c>
+      <c r="G65" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="9"/>
       <c r="B66" s="9">
         <v>0</v>
       </c>
       <c r="C66" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="F66" t="s">
+        <v>822</v>
+      </c>
+      <c r="G66" t="s">
         <v>239</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F66" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="9"/>
       <c r="B67" s="9">
         <v>0</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="F67" t="s">
+        <v>823</v>
+      </c>
+      <c r="G67" t="s">
         <v>243</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="9"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="F68" t="s">
+        <v>824</v>
+      </c>
+      <c r="G68" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="9"/>
       <c r="B69" s="9">
         <v>0</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" t="s">
+        <v>825</v>
+      </c>
+      <c r="G69" t="s">
         <v>250</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="9"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
       <c r="C70" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" t="s">
+        <v>826</v>
+      </c>
+      <c r="G70" t="s">
         <v>253</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="9"/>
       <c r="B71" s="9">
         <v>0</v>
       </c>
       <c r="C71" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" t="s">
+        <v>827</v>
+      </c>
+      <c r="G71" t="s">
         <v>256</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="9"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="F72" t="s">
+        <v>828</v>
+      </c>
+      <c r="G72" t="s">
         <v>260</v>
       </c>
-      <c r="E72" s="10" t="s">
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F72" t="s">
+      <c r="B73" s="9">
+        <v>0</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B73" s="9">
-        <v>0</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="9"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="F74" t="s">
+        <v>263</v>
+      </c>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="9"/>
       <c r="B75" s="9">
         <v>0</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>263</v>
+      </c>
+      <c r="F75" t="s">
+        <v>263</v>
+      </c>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="9"/>
       <c r="B76" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" t="s">
+        <v>829</v>
+      </c>
+      <c r="G76" t="s">
         <v>268</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="9"/>
       <c r="B77" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="F77" t="s">
+        <v>830</v>
+      </c>
+      <c r="G77" t="s">
         <v>272</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F77" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" ht="25.5" spans="1:6">
+    </row>
+    <row r="78" spans="1:7" ht="27">
       <c r="A78" s="9"/>
       <c r="B78" s="9">
         <v>0</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="F78" t="s">
+        <v>831</v>
+      </c>
+      <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F78" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="9"/>
       <c r="B79" s="9">
         <v>0</v>
       </c>
       <c r="C79" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="F79" t="s">
+        <v>832</v>
+      </c>
+      <c r="G79" t="s">
         <v>280</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F79" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="9"/>
       <c r="B80" s="9">
         <v>0</v>
       </c>
       <c r="C80" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="F80" t="s">
+        <v>833</v>
+      </c>
+      <c r="G80" t="s">
         <v>284</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="9"/>
       <c r="B81" s="9">
         <v>0</v>
       </c>
       <c r="C81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="F81" t="s">
+        <v>834</v>
+      </c>
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="9"/>
       <c r="B82" s="9">
         <v>0</v>
       </c>
       <c r="C82" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" t="s">
+        <v>835</v>
+      </c>
+      <c r="G82" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F82" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="9"/>
       <c r="B83" s="9">
         <v>0</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="F83" t="s">
+        <v>836</v>
+      </c>
+      <c r="G83" t="s">
         <v>295</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F83" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="9"/>
       <c r="B84" s="9">
         <v>0</v>
       </c>
       <c r="C84" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F84" t="s">
+        <v>837</v>
+      </c>
+      <c r="G84" t="s">
         <v>298</v>
       </c>
-      <c r="D84" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="9"/>
       <c r="B85" s="9">
         <v>0</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="F85" t="s">
+        <v>838</v>
+      </c>
+      <c r="G85" t="s">
         <v>302</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F85" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="9"/>
       <c r="B86" s="9">
         <v>0</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="F86" t="s">
+        <v>839</v>
+      </c>
+      <c r="G86" t="s">
         <v>306</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F86" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="9"/>
       <c r="B87" s="9">
         <v>0</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="F87" t="s">
+        <v>840</v>
+      </c>
+      <c r="G87" t="s">
         <v>310</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F87" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="9"/>
       <c r="B88" s="9">
         <v>0</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88" t="s">
+        <v>841</v>
+      </c>
+      <c r="G88" t="s">
         <v>313</v>
       </c>
-      <c r="D88" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F88" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="9"/>
       <c r="B89" s="9">
         <v>0</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="F89" t="s">
+        <v>842</v>
+      </c>
+      <c r="G89" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F89" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="9"/>
       <c r="B90" s="9">
         <v>0</v>
       </c>
       <c r="C90" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90" t="s">
+        <v>843</v>
+      </c>
+      <c r="G90" t="s">
         <v>320</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="F90" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="9"/>
       <c r="B91" s="9">
         <v>0</v>
       </c>
       <c r="C91" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F91" t="s">
+        <v>844</v>
+      </c>
+      <c r="G91" t="s">
         <v>323</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="F91" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="9"/>
       <c r="B92" s="9">
         <v>0</v>
       </c>
       <c r="C92" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F92" t="s">
+        <v>845</v>
+      </c>
+      <c r="G92" t="s">
         <v>326</v>
       </c>
-      <c r="D92" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="9"/>
       <c r="B93" s="9">
         <v>0</v>
       </c>
       <c r="C93" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" t="s">
+        <v>846</v>
+      </c>
+      <c r="G93" t="s">
         <v>329</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F93" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="9"/>
       <c r="B94" s="9">
         <v>0</v>
       </c>
       <c r="C94" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="F94" t="s">
+        <v>847</v>
+      </c>
+      <c r="G94" t="s">
         <v>333</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F94" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="9"/>
       <c r="B95" s="9">
         <v>0</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="F95" t="s">
+        <v>848</v>
+      </c>
+      <c r="G95" t="s">
         <v>337</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="F95" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="13"/>
       <c r="B96" s="9">
         <v>0</v>
       </c>
       <c r="C96" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="F96" t="s">
+        <v>849</v>
+      </c>
+      <c r="G96" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F96" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1">
       <c r="A97" s="14"/>
       <c r="B97" s="9">
         <v>0</v>
       </c>
       <c r="C97" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D97" s="14" t="s">
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" ht="33">
+      <c r="A98" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="B98" s="9">
+        <v>0</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="33">
+      <c r="A99" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A98" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B98" s="9">
-        <v>0</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="E98" s="16" t="s">
+      <c r="B99" s="9">
+        <v>0</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="D99" s="16" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A99" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B99" s="9">
-        <v>0</v>
-      </c>
-      <c r="C99" s="15" t="s">
+      <c r="E99" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D99" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1">
       <c r="A100" s="14"/>
       <c r="B100" s="9">
         <v>0</v>
       </c>
       <c r="C100" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="F100" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E100" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1">
       <c r="A101" s="14"/>
       <c r="B101" s="9">
         <v>0</v>
       </c>
       <c r="C101" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E101" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="F101" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1">
       <c r="A102" s="14"/>
       <c r="B102" s="9">
         <v>0</v>
       </c>
       <c r="C102" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E102" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="F102" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E102" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="103" spans="1:7" s="1" customFormat="1">
       <c r="A103" s="14"/>
       <c r="B103" s="9">
         <v>0</v>
       </c>
       <c r="C103" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E103" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="F103" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E103" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="104" spans="1:7" s="1" customFormat="1">
       <c r="A104" s="14"/>
       <c r="B104" s="9">
         <v>0</v>
       </c>
       <c r="C104" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E104" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="F104" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E104" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="105" spans="1:7" s="1" customFormat="1">
       <c r="A105" s="14"/>
       <c r="B105" s="9">
         <v>0</v>
       </c>
       <c r="C105" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E105" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="F105" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E105" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="106" spans="1:7" s="1" customFormat="1">
       <c r="A106" s="14"/>
       <c r="B106" s="9">
         <v>0</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D106" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E106" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1">
       <c r="A107" s="14"/>
       <c r="B107" s="9">
         <v>0</v>
       </c>
       <c r="C107" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E107" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="F107" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E107" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="51" spans="1:6">
+    </row>
+    <row r="108" spans="1:7" s="1" customFormat="1" ht="53.25">
       <c r="A108" s="14"/>
       <c r="B108" s="9">
         <v>0</v>
       </c>
       <c r="C108" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E108" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="F108" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E108" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="9"/>
       <c r="B109" s="9">
         <v>0</v>
       </c>
       <c r="C109" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E109" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="F109" t="s">
+        <v>861</v>
+      </c>
+      <c r="G109" t="s">
         <v>389</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="F109" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="9"/>
       <c r="B110" s="9">
         <v>0</v>
       </c>
       <c r="C110" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F110" t="s">
+        <v>862</v>
+      </c>
+      <c r="G110" t="s">
         <v>392</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="F110" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="9"/>
       <c r="B111" s="9">
         <v>0</v>
       </c>
       <c r="C111" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111" t="s">
+        <v>863</v>
+      </c>
+      <c r="G111" t="s">
         <v>395</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="F111" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="9"/>
       <c r="B112" s="9">
         <v>0</v>
       </c>
       <c r="C112" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="F112" t="s">
+        <v>864</v>
+      </c>
+      <c r="G112" t="s">
         <v>399</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="F112" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="9"/>
       <c r="B113" s="9">
         <v>0</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="F113" t="s">
+        <v>865</v>
+      </c>
+      <c r="G113" t="s">
         <v>403</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F113" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="9"/>
       <c r="B114" s="9">
         <v>0</v>
       </c>
       <c r="C114" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E114" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="F114" t="s">
+        <v>866</v>
+      </c>
+      <c r="G114" t="s">
         <v>407</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="F114" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="9"/>
       <c r="B115" s="9">
         <v>0</v>
       </c>
       <c r="C115" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E115" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="F115" t="s">
+        <v>867</v>
+      </c>
+      <c r="G115" t="s">
         <v>411</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F115" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="9"/>
       <c r="B116" s="9">
         <v>0</v>
       </c>
       <c r="C116" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="F116" t="s">
+        <v>868</v>
+      </c>
+      <c r="G116" t="s">
         <v>415</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="F116" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="9"/>
       <c r="B117" s="9">
         <v>0</v>
       </c>
       <c r="C117" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="F117" t="s">
+        <v>869</v>
+      </c>
+      <c r="G117" t="s">
         <v>419</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="F117" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="9"/>
       <c r="B118" s="9">
         <v>0</v>
       </c>
       <c r="C118" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F118" t="s">
+        <v>870</v>
+      </c>
+      <c r="G118" t="s">
         <v>422</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="F118" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="9"/>
       <c r="B119" s="9">
         <v>0</v>
       </c>
       <c r="C119" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="F119" t="s">
+        <v>871</v>
+      </c>
+      <c r="G119" t="s">
         <v>426</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F119" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="9"/>
       <c r="B120" s="9">
         <v>0</v>
       </c>
       <c r="C120" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="F120" t="s">
+        <v>872</v>
+      </c>
+      <c r="G120" t="s">
         <v>430</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="F120" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="9"/>
       <c r="B121" s="9">
         <v>0</v>
       </c>
       <c r="C121" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F121" t="s">
+        <v>873</v>
+      </c>
+      <c r="G121" t="s">
         <v>433</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F121" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="9"/>
       <c r="B122" s="9">
         <v>0</v>
       </c>
       <c r="C122" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F122" t="s">
+        <v>874</v>
+      </c>
+      <c r="G122" t="s">
         <v>436</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F122" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="9"/>
       <c r="B123" s="9">
         <v>0</v>
       </c>
       <c r="C123" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="F123" t="s">
+        <v>875</v>
+      </c>
+      <c r="G123" t="s">
         <v>440</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F123" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="9"/>
       <c r="B124" s="9">
         <v>0</v>
       </c>
       <c r="C124" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F124" t="s">
+        <v>876</v>
+      </c>
+      <c r="G124" t="s">
         <v>443</v>
       </c>
-      <c r="D124" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F124" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="9"/>
       <c r="B125" s="9">
         <v>0</v>
       </c>
       <c r="C125" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="F125" t="s">
+        <v>877</v>
+      </c>
+      <c r="G125" t="s">
         <v>447</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F125" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="9"/>
       <c r="B126" s="9">
         <v>0</v>
       </c>
       <c r="C126" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="F126" t="s">
+        <v>878</v>
+      </c>
+      <c r="G126" t="s">
         <v>451</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F126" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="9"/>
       <c r="B127" s="9">
         <v>0</v>
       </c>
       <c r="C127" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="F127" t="s">
+        <v>879</v>
+      </c>
+      <c r="G127" t="s">
         <v>455</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F127" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="9"/>
       <c r="B128" s="9">
         <v>0</v>
       </c>
       <c r="C128" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="F128" t="s">
+        <v>880</v>
+      </c>
+      <c r="G128" t="s">
         <v>459</v>
       </c>
-      <c r="E128" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="F128" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="9"/>
       <c r="B129" s="9">
         <v>0</v>
       </c>
       <c r="C129" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="F129" t="s">
+        <v>881</v>
+      </c>
+      <c r="G129" t="s">
         <v>463</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="F129" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="9"/>
       <c r="B130" s="9">
         <v>0</v>
       </c>
       <c r="C130" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E130" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="F130" t="s">
+        <v>882</v>
+      </c>
+      <c r="G130" t="s">
         <v>467</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="F130" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="9"/>
       <c r="B131" s="9">
         <v>0</v>
       </c>
       <c r="C131" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E131" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="F131" t="s">
+        <v>883</v>
+      </c>
+      <c r="G131" t="s">
         <v>471</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F131" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="9"/>
       <c r="B132" s="9">
         <v>0</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E132" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="F132" t="s">
+        <v>949</v>
+      </c>
+      <c r="G132" t="s">
         <v>475</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F132" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="9"/>
       <c r="B133" s="9">
         <v>0</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E133" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="F133" t="s">
+        <v>948</v>
+      </c>
+      <c r="G133" t="s">
         <v>479</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="F133" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="9"/>
       <c r="B134" s="9">
         <v>0</v>
       </c>
       <c r="C134" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E134" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="F134" t="s">
+        <v>884</v>
+      </c>
+      <c r="G134" t="s">
         <v>483</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="F134" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="9"/>
       <c r="B135" s="9">
         <v>0</v>
       </c>
       <c r="C135" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="F135" t="s">
+        <v>885</v>
+      </c>
+      <c r="G135" t="s">
         <v>487</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F135" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="9"/>
       <c r="B136" s="9">
         <v>0</v>
       </c>
       <c r="C136" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E136" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="F136" t="s">
+        <v>886</v>
+      </c>
+      <c r="G136" t="s">
         <v>491</v>
       </c>
-      <c r="E136" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="F136" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="9"/>
       <c r="B137" s="9">
         <v>0</v>
       </c>
       <c r="C137" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="F137" t="s">
+        <v>887</v>
+      </c>
+      <c r="G137" t="s">
         <v>495</v>
       </c>
-      <c r="E137" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="F137" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="138" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="138" spans="1:7" s="2" customFormat="1">
       <c r="A138" s="9"/>
       <c r="B138" s="9">
         <v>0</v>
       </c>
       <c r="C138" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="E138" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="F138" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E138" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="139" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="139" spans="1:7" s="2" customFormat="1">
       <c r="A139" s="9"/>
       <c r="B139" s="9">
         <v>0</v>
       </c>
       <c r="C139" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E139" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="F139" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="140" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="140" spans="1:7" s="2" customFormat="1">
       <c r="A140" s="9"/>
       <c r="B140" s="9">
         <v>0</v>
       </c>
       <c r="C140" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="E140" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="F140" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E140" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="141" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="141" spans="1:7" s="2" customFormat="1">
       <c r="A141" s="9"/>
       <c r="B141" s="9">
         <v>0</v>
       </c>
       <c r="C141" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="E141" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="F141" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E141" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="142" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="142" spans="1:7" s="2" customFormat="1">
       <c r="A142" s="9"/>
       <c r="B142" s="9">
         <v>0</v>
       </c>
       <c r="C142" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="E142" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D142" s="20" t="s">
+      <c r="F142" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E142" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="143" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="143" spans="1:7" s="2" customFormat="1">
       <c r="A143" s="9"/>
       <c r="B143" s="9">
         <v>0</v>
       </c>
       <c r="C143" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="E143" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="D143" s="20" t="s">
+      <c r="F143" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E143" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="9"/>
       <c r="B144" s="9">
         <v>0</v>
       </c>
       <c r="C144" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E144" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="F144" t="s">
+        <v>894</v>
+      </c>
+      <c r="G144" t="s">
         <v>523</v>
       </c>
-      <c r="E144" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="F144" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="9"/>
       <c r="B145" s="9">
         <v>0</v>
       </c>
       <c r="C145" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="F145" t="s">
+        <v>895</v>
+      </c>
+      <c r="G145" t="s">
         <v>527</v>
       </c>
-      <c r="E145" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="F145" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="9"/>
       <c r="B146" s="9">
         <v>0</v>
       </c>
       <c r="C146" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E146" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="F146" t="s">
+        <v>896</v>
+      </c>
+      <c r="G146" t="s">
         <v>531</v>
       </c>
-      <c r="E146" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="F146" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="9"/>
       <c r="B147" s="9">
         <v>0</v>
       </c>
       <c r="C147" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E147" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="F147" t="s">
+        <v>897</v>
+      </c>
+      <c r="G147" t="s">
         <v>535</v>
       </c>
-      <c r="E147" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="F147" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="9"/>
       <c r="B148" s="9">
         <v>0</v>
       </c>
       <c r="C148" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E148" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="F148" t="s">
+        <v>898</v>
+      </c>
+      <c r="G148" t="s">
         <v>539</v>
       </c>
-      <c r="E148" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="F148" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="149" ht="33" customHeight="1" spans="1:6">
+    </row>
+    <row r="149" spans="1:7" ht="33" customHeight="1">
       <c r="A149" s="9"/>
       <c r="B149" s="9">
         <v>0</v>
       </c>
       <c r="C149" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="F149" t="s">
+        <v>899</v>
+      </c>
+      <c r="G149" t="s">
         <v>543</v>
       </c>
-      <c r="E149" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="F149" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="150" ht="53.25" spans="1:6">
+    </row>
+    <row r="150" spans="1:7" ht="55.5">
       <c r="A150" s="9"/>
       <c r="B150" s="9">
         <v>0</v>
       </c>
       <c r="C150" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E150" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="F150" t="s">
+        <v>900</v>
+      </c>
+      <c r="G150" t="s">
         <v>547</v>
       </c>
-      <c r="E150" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="F150" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="9"/>
       <c r="B151" s="9">
         <v>0</v>
       </c>
       <c r="C151" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E151" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="F151" t="s">
+        <v>901</v>
+      </c>
+      <c r="G151" t="s">
         <v>551</v>
       </c>
-      <c r="E151" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="F151" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="9"/>
       <c r="B152" s="9">
         <v>0</v>
       </c>
       <c r="C152" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E152" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="F152" t="s">
+        <v>902</v>
+      </c>
+      <c r="G152" t="s">
         <v>555</v>
       </c>
-      <c r="E152" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="F152" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="153" ht="25.5" spans="1:6">
+    </row>
+    <row r="153" spans="1:7" ht="27">
       <c r="A153" s="9"/>
       <c r="B153" s="9">
         <v>0</v>
       </c>
       <c r="C153" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="F153" t="s">
+        <v>903</v>
+      </c>
+      <c r="G153" t="s">
         <v>559</v>
       </c>
-      <c r="E153" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F153" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="154" ht="25.5" spans="1:6">
+    </row>
+    <row r="154" spans="1:7" ht="40.5">
       <c r="A154" s="9"/>
       <c r="B154" s="9">
         <v>0</v>
       </c>
       <c r="C154" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E154" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="F154" t="s">
+        <v>904</v>
+      </c>
+      <c r="G154" t="s">
         <v>563</v>
       </c>
-      <c r="E154" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="F154" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="155" ht="25.5" spans="1:6">
+    </row>
+    <row r="155" spans="1:7" ht="40.5">
       <c r="A155" s="9"/>
       <c r="B155" s="9">
         <v>0</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D155" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F155" t="s">
+        <v>904</v>
+      </c>
+      <c r="G155" t="s">
         <v>563</v>
       </c>
-      <c r="E155" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="F155" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="9"/>
       <c r="B156" s="9">
         <v>0</v>
       </c>
       <c r="C156" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E156" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="F156" t="s">
+        <v>905</v>
+      </c>
+      <c r="G156" t="s">
         <v>568</v>
       </c>
-      <c r="E156" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="F156" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="9"/>
       <c r="B157" s="9">
         <v>0</v>
       </c>
       <c r="C157" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="F157" t="s">
+        <v>906</v>
+      </c>
+      <c r="G157" t="s">
         <v>572</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F157" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="9"/>
       <c r="B158" s="9">
         <v>0</v>
       </c>
       <c r="C158" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="F158" t="s">
+        <v>907</v>
+      </c>
+      <c r="G158" t="s">
         <v>576</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F158" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="9"/>
       <c r="B159" s="9">
         <v>0</v>
       </c>
       <c r="C159" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="F159" t="s">
+        <v>908</v>
+      </c>
+      <c r="G159" t="s">
         <v>580</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="F159" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="9"/>
       <c r="B160" s="9">
         <v>0</v>
       </c>
       <c r="C160" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="F160" t="s">
+        <v>909</v>
+      </c>
+      <c r="G160" t="s">
         <v>583</v>
       </c>
-      <c r="D160" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="F160" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="9"/>
       <c r="B161" s="9">
         <v>0</v>
       </c>
       <c r="C161" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E161" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="F161" t="s">
+        <v>910</v>
+      </c>
+      <c r="G161" t="s">
         <v>587</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F161" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="9"/>
       <c r="B162" s="9">
         <v>0</v>
       </c>
       <c r="C162" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F162" t="s">
+        <v>911</v>
+      </c>
+      <c r="G162" t="s">
         <v>590</v>
       </c>
-      <c r="D162" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="F162" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="9"/>
       <c r="B163" s="9">
         <v>0</v>
       </c>
       <c r="C163" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="F163" t="s">
+        <v>912</v>
+      </c>
+      <c r="G163" t="s">
         <v>594</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="F163" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="9"/>
       <c r="B164" s="9">
         <v>0</v>
       </c>
       <c r="C164" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="F164" t="s">
+        <v>913</v>
+      </c>
+      <c r="G164" t="s">
         <v>598</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="F164" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="9"/>
       <c r="B165" s="9">
         <v>0</v>
       </c>
       <c r="C165" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="F165" t="s">
+        <v>914</v>
+      </c>
+      <c r="G165" t="s">
         <v>602</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="F165" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="9"/>
       <c r="B166" s="9">
         <v>0</v>
       </c>
       <c r="C166" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E166" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="F166" t="s">
+        <v>915</v>
+      </c>
+      <c r="G166" t="s">
         <v>606</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F166" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="9"/>
       <c r="B167" s="9">
         <v>0</v>
       </c>
       <c r="C167" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="F167" t="s">
+        <v>916</v>
+      </c>
+      <c r="G167" t="s">
         <v>610</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="F167" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="9"/>
       <c r="B168" s="9">
         <v>0</v>
       </c>
       <c r="C168" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E168" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="F168" t="s">
+        <v>917</v>
+      </c>
+      <c r="G168" t="s">
         <v>614</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F168" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="9"/>
       <c r="B169" s="9">
         <v>0</v>
       </c>
       <c r="C169" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E169" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="F169" t="s">
+        <v>918</v>
+      </c>
+      <c r="G169" t="s">
         <v>618</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="F169" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="9"/>
       <c r="B170" s="9">
         <v>0</v>
       </c>
       <c r="C170" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="F170" t="s">
+        <v>919</v>
+      </c>
+      <c r="G170" t="s">
         <v>622</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F170" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="9"/>
       <c r="B171" s="9">
         <v>0</v>
       </c>
       <c r="C171" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="F171" t="s">
+        <v>920</v>
+      </c>
+      <c r="G171" t="s">
         <v>626</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="F171" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="9"/>
       <c r="B172" s="9">
         <v>0</v>
       </c>
       <c r="C172" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="F172" t="s">
+        <v>921</v>
+      </c>
+      <c r="G172" t="s">
         <v>630</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="F172" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="9"/>
       <c r="B173" s="9">
         <v>0</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F173" t="s">
+        <v>922</v>
+      </c>
+      <c r="G173" t="s">
         <v>633</v>
       </c>
-      <c r="D173" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="F173" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="9"/>
       <c r="B174" s="9">
         <v>0</v>
       </c>
       <c r="C174" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F174" t="s">
+        <v>923</v>
+      </c>
+      <c r="G174" t="s">
         <v>636</v>
       </c>
-      <c r="D174" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="F174" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="9"/>
       <c r="B175" s="9">
         <v>0</v>
       </c>
       <c r="C175" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="F175" t="s">
+        <v>924</v>
+      </c>
+      <c r="G175" t="s">
         <v>640</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="F175" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="9"/>
       <c r="B176" s="9">
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="F176" t="s">
+        <v>925</v>
+      </c>
+      <c r="G176" t="s">
         <v>644</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="F176" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="9"/>
       <c r="B177" s="9">
         <v>0</v>
       </c>
       <c r="C177" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E177" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="F177" t="s">
+        <v>926</v>
+      </c>
+      <c r="G177" t="s">
         <v>648</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F177" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="9"/>
       <c r="B178" s="9">
         <v>0</v>
       </c>
       <c r="C178" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="F178" t="s">
+        <v>927</v>
+      </c>
+      <c r="G178" t="s">
         <v>652</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="F178" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="9"/>
       <c r="B179" s="9">
         <v>0</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D179" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F179" t="s">
+        <v>926</v>
+      </c>
+      <c r="G179" t="s">
         <v>648</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="F179" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="9"/>
       <c r="B180" s="9">
         <v>0</v>
       </c>
       <c r="C180" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F180" t="s">
+        <v>950</v>
+      </c>
+      <c r="G180" t="s">
         <v>656</v>
       </c>
-      <c r="D180" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="F180" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="9"/>
       <c r="B181" s="9">
         <v>0</v>
       </c>
       <c r="C181" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="F181" t="s">
+        <v>951</v>
+      </c>
+      <c r="G181" t="s">
         <v>660</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="F181" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="9"/>
       <c r="B182" s="9">
         <v>0</v>
       </c>
       <c r="C182" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="F182" t="s">
+        <v>928</v>
+      </c>
+      <c r="G182" t="s">
         <v>664</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="F182" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="9"/>
       <c r="B183" s="9">
         <v>0</v>
       </c>
       <c r="C183" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="F183" t="s">
+        <v>929</v>
+      </c>
+      <c r="G183" t="s">
         <v>668</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="F183" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="9"/>
       <c r="B184" s="9">
         <v>0</v>
       </c>
       <c r="C184" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="F184" t="s">
+        <v>930</v>
+      </c>
+      <c r="G184" t="s">
         <v>672</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="F184" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="9"/>
       <c r="B185" s="9">
         <v>0</v>
       </c>
       <c r="C185" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="F185" t="s">
+        <v>931</v>
+      </c>
+      <c r="G185" t="s">
         <v>676</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="F185" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="9"/>
       <c r="B186" s="9">
         <v>0</v>
       </c>
       <c r="C186" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="F186" t="s">
+        <v>932</v>
+      </c>
+      <c r="G186" t="s">
         <v>680</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="F186" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="9"/>
       <c r="B187" s="9">
         <v>0</v>
       </c>
       <c r="C187" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="F187" t="s">
+        <v>933</v>
+      </c>
+      <c r="G187" t="s">
         <v>684</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="F187" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="9"/>
       <c r="B188" s="9">
         <v>0</v>
       </c>
       <c r="C188" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="F188" t="s">
+        <v>934</v>
+      </c>
+      <c r="G188" t="s">
         <v>688</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="F188" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="9"/>
       <c r="B189" s="9">
         <v>0</v>
       </c>
       <c r="C189" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="F189" t="s">
+        <v>935</v>
+      </c>
+      <c r="G189" t="s">
         <v>692</v>
       </c>
-      <c r="E189" s="4" t="s">
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F189" t="s">
+      <c r="B190" s="9">
+        <v>0</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="3" t="s">
+      <c r="D190" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B190" s="9">
-        <v>0</v>
-      </c>
-      <c r="C190" s="10" t="s">
+      <c r="E190" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="F190" t="s">
+        <v>936</v>
+      </c>
+      <c r="G190" t="s">
         <v>697</v>
       </c>
-      <c r="E190" s="4" t="s">
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="F190" t="s">
+      <c r="B191" s="9">
+        <v>0</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="3" t="s">
+      <c r="D191" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B191" s="9">
-        <v>0</v>
-      </c>
-      <c r="C191" s="10" t="s">
+      <c r="E191" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="F191" t="s">
+        <v>937</v>
+      </c>
+      <c r="G191" t="s">
         <v>702</v>
       </c>
-      <c r="E191" s="4" t="s">
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F191" t="s">
+      <c r="B192" s="9">
+        <v>0</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="3" t="s">
+      <c r="D192" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B192" s="9">
-        <v>0</v>
-      </c>
-      <c r="C192" s="10" t="s">
+      <c r="E192" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="F192" t="s">
+        <v>938</v>
+      </c>
+      <c r="G192" t="s">
         <v>707</v>
       </c>
-      <c r="E192" s="4" t="s">
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="F192" t="s">
+      <c r="B193" s="9">
+        <v>0</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="3" t="s">
+      <c r="D193" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="B193" s="9">
-        <v>0</v>
-      </c>
-      <c r="C193" s="10" t="s">
+      <c r="E193" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="D193" s="17" t="s">
+      <c r="F193" t="s">
+        <v>939</v>
+      </c>
+      <c r="G193" t="s">
         <v>712</v>
       </c>
-      <c r="E193" s="4" t="s">
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F193" t="s">
+      <c r="B194" s="9">
+        <v>0</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="3" t="s">
+      <c r="D194" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B194" s="9">
-        <v>0</v>
-      </c>
-      <c r="C194" s="10" t="s">
+      <c r="E194" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="F194" t="s">
+        <v>952</v>
+      </c>
+      <c r="G194" t="s">
         <v>717</v>
       </c>
-      <c r="E194" s="4" t="s">
+    </row>
+    <row r="195" spans="1:7">
+      <c r="B195" s="9">
+        <v>0</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="F194" t="s">
+      <c r="D195" s="10" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="195" spans="2:6">
-      <c r="B195" s="9">
-        <v>0</v>
-      </c>
-      <c r="C195" s="10" t="s">
+      <c r="E195" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="F195" t="s">
+        <v>940</v>
+      </c>
+      <c r="G195" t="s">
         <v>721</v>
       </c>
-      <c r="E195" s="4" t="s">
+    </row>
+    <row r="196" spans="1:7" ht="40.5">
+      <c r="B196" s="9">
+        <v>0</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="F195" t="s">
+      <c r="D196" s="11" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="196" ht="38.25" spans="2:6">
-      <c r="B196" s="9">
-        <v>0</v>
-      </c>
-      <c r="C196" s="10" t="s">
+      <c r="E196" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="F196" t="s">
+        <v>941</v>
+      </c>
+      <c r="G196" t="s">
         <v>725</v>
       </c>
-      <c r="E196" s="4" t="s">
+    </row>
+    <row r="197" spans="1:7">
+      <c r="B197" s="9">
+        <v>0</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="F196" t="s">
+      <c r="D197" s="10" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="197" spans="2:6">
-      <c r="B197" s="9">
-        <v>0</v>
-      </c>
-      <c r="C197" s="10" t="s">
+      <c r="E197" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="F197" t="s">
+        <v>942</v>
+      </c>
+      <c r="G197" t="s">
         <v>729</v>
       </c>
-      <c r="E197" s="4" t="s">
+    </row>
+    <row r="198" spans="1:7">
+      <c r="B198" s="9">
+        <v>0</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="F197" t="s">
+      <c r="D198" s="10" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="198" spans="2:6">
-      <c r="B198" s="9">
-        <v>0</v>
-      </c>
-      <c r="C198" s="10" t="s">
+      <c r="E198" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="F198" t="s">
+        <v>943</v>
+      </c>
+      <c r="G198" t="s">
         <v>733</v>
       </c>
-      <c r="E198" s="4" t="s">
+    </row>
+    <row r="199" spans="1:7">
+      <c r="B199" s="9">
+        <v>0</v>
+      </c>
+      <c r="C199" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="F198" t="s">
+      <c r="D199" s="10" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="199" spans="2:6">
-      <c r="B199" s="9">
-        <v>0</v>
-      </c>
-      <c r="C199" s="10" t="s">
+      <c r="E199" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="F199" t="s">
+        <v>944</v>
+      </c>
+      <c r="G199" t="s">
         <v>737</v>
       </c>
-      <c r="E199" s="4" t="s">
+    </row>
+    <row r="200" spans="1:7">
+      <c r="B200" s="9">
+        <v>0</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>738</v>
       </c>
-      <c r="F199" t="s">
+      <c r="D200" s="10" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="200" spans="2:6">
-      <c r="B200" s="9">
-        <v>0</v>
-      </c>
-      <c r="C200" s="10" t="s">
+      <c r="E200" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="F200" t="s">
+        <v>953</v>
+      </c>
+      <c r="G200" t="s">
         <v>741</v>
       </c>
-      <c r="E200" s="4" t="s">
+    </row>
+    <row r="201" spans="1:7">
+      <c r="B201" s="9">
+        <v>0</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="F200" t="s">
+      <c r="D201" s="10" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="201" spans="2:6">
-      <c r="B201" s="9">
-        <v>0</v>
-      </c>
-      <c r="C201" s="10" t="s">
+      <c r="E201" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="F201" t="s">
+        <v>960</v>
+      </c>
+      <c r="G201" t="s">
         <v>745</v>
       </c>
-      <c r="E201" s="4" t="s">
+    </row>
+    <row r="202" spans="1:7">
+      <c r="B202" s="9">
+        <v>0</v>
+      </c>
+      <c r="C202" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="F201" t="s">
+      <c r="D202" s="11" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="202" spans="2:6">
-      <c r="B202" s="9">
-        <v>0</v>
-      </c>
-      <c r="C202" s="10" t="s">
+      <c r="E202" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="F202" t="s">
+        <v>959</v>
+      </c>
+      <c r="G202" t="s">
         <v>749</v>
       </c>
-      <c r="E202" s="4" t="s">
+    </row>
+    <row r="203" spans="1:7">
+      <c r="B203" s="9">
+        <v>0</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="F202" t="s">
+      <c r="D203" s="10" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="203" spans="2:6">
-      <c r="B203" s="9">
-        <v>0</v>
-      </c>
-      <c r="C203" s="10" t="s">
+      <c r="E203" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="F203" t="s">
+        <v>954</v>
+      </c>
+      <c r="G203" t="s">
         <v>753</v>
       </c>
-      <c r="E203" s="4" t="s">
+    </row>
+    <row r="204" spans="1:7">
+      <c r="B204" s="9">
+        <v>0</v>
+      </c>
+      <c r="C204" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="F203" t="s">
+      <c r="D204" s="10" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="204" spans="2:6">
-      <c r="B204" s="9">
-        <v>0</v>
-      </c>
-      <c r="C204" s="10" t="s">
+      <c r="E204" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="F204" t="s">
+        <v>958</v>
+      </c>
+      <c r="G204" t="s">
         <v>757</v>
       </c>
-      <c r="E204" s="4" t="s">
+    </row>
+    <row r="205" spans="1:7">
+      <c r="B205" s="9">
+        <v>0</v>
+      </c>
+      <c r="C205" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="F204" t="s">
+      <c r="D205" s="10" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="205" spans="2:6">
-      <c r="B205" s="9">
-        <v>0</v>
-      </c>
-      <c r="C205" s="10" t="s">
+      <c r="E205" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="F205" t="s">
+        <v>955</v>
+      </c>
+      <c r="G205" t="s">
         <v>761</v>
       </c>
-      <c r="E205" s="4" t="s">
+    </row>
+    <row r="206" spans="1:7">
+      <c r="B206" s="9">
+        <v>0</v>
+      </c>
+      <c r="C206" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="F205" t="s">
+      <c r="D206" s="10" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="206" spans="2:6">
-      <c r="B206" s="9">
-        <v>0</v>
-      </c>
-      <c r="C206" s="10" t="s">
+      <c r="E206" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="F206" t="s">
+        <v>957</v>
+      </c>
+      <c r="G206" t="s">
         <v>765</v>
       </c>
-      <c r="E206" s="4" t="s">
+    </row>
+    <row r="207" spans="1:7">
+      <c r="B207" s="9">
+        <v>0</v>
+      </c>
+      <c r="C207" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="F206" t="s">
+      <c r="D207" s="10" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="207" spans="2:6">
-      <c r="B207" s="9">
-        <v>0</v>
-      </c>
-      <c r="C207" s="10" t="s">
+      <c r="E207" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F207" t="s">
+        <v>767</v>
+      </c>
+      <c r="G207" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="B208" s="9">
+        <v>0</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D208" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="F208" t="s">
+        <v>767</v>
+      </c>
+      <c r="G208" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="B209" s="9">
+        <v>0</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="E207" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F207" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6">
-      <c r="B208" s="9">
-        <v>0</v>
-      </c>
-      <c r="C208" s="10" t="s">
+      <c r="D209" s="10" t="s">
         <v>770</v>
       </c>
-      <c r="D208" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="F208" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6">
-      <c r="B209" s="9">
-        <v>0</v>
-      </c>
-      <c r="C209" s="10" t="s">
+      <c r="E209" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="F209" t="s">
+        <v>961</v>
+      </c>
+      <c r="G209" t="s">
         <v>772</v>
       </c>
-      <c r="E209" s="4" t="s">
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="F209" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="9" t="s">
-        <v>775</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D82:D83 D85:D92">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>